--- a/mAjustesInventario/bak_DO30.xlsx
+++ b/mAjustesInventario/bak_DO30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B93891-AC48-42CD-B8B4-F626367B0228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86B61221-8EE2-4445-AEC6-5C8FC42015B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41337AFA-5DFE-4F04-A9AA-E9E6086278EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB0BFB7E-A785-4A2A-B499-52F5F4DC61F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,138 +34,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>7506309859774</t>
-  </si>
-  <si>
-    <t>8719200450486</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>037102492006</t>
-  </si>
-  <si>
-    <t>7501614311191</t>
-  </si>
-  <si>
-    <t>7891040112968</t>
-  </si>
-  <si>
-    <t>0078</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>7501040081897</t>
-  </si>
-  <si>
-    <t>7501200480010</t>
-  </si>
-  <si>
-    <t>7622210841391</t>
-  </si>
-  <si>
-    <t>980144</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>0728</t>
-  </si>
-  <si>
-    <t>07002595</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>664177000098</t>
-  </si>
-  <si>
-    <t>681442806534</t>
-  </si>
-  <si>
-    <t>6920577232168</t>
-  </si>
-  <si>
-    <t>719886250163</t>
-  </si>
-  <si>
-    <t>719886871948</t>
-  </si>
-  <si>
-    <t>734474102068</t>
-  </si>
-  <si>
-    <t>7500463956607</t>
-  </si>
-  <si>
-    <t>7501005114288</t>
-  </si>
-  <si>
-    <t>7501018390341</t>
-  </si>
-  <si>
-    <t>7501020562019</t>
-  </si>
-  <si>
-    <t>7501021110257</t>
-  </si>
-  <si>
-    <t>7501039702253</t>
-  </si>
-  <si>
-    <t>7501040081101</t>
-  </si>
-  <si>
-    <t>7501060408339</t>
-  </si>
-  <si>
-    <t>7501125410109</t>
-  </si>
-  <si>
-    <t>7501206641675</t>
-  </si>
-  <si>
-    <t>7501209707101</t>
-  </si>
-  <si>
-    <t>7501209708139</t>
-  </si>
-  <si>
-    <t>7502007308781</t>
-  </si>
-  <si>
-    <t>7506350106049</t>
-  </si>
-  <si>
-    <t>759684272318</t>
-  </si>
-  <si>
-    <t>759684272325</t>
-  </si>
-  <si>
-    <t>2123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>7506192506786</t>
+  </si>
+  <si>
+    <t>0746</t>
+  </si>
+  <si>
+    <t>0547</t>
+  </si>
+  <si>
+    <t>7501100662042</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>0578</t>
+  </si>
+  <si>
+    <t>7501020564082</t>
+  </si>
+  <si>
+    <t>7503000464566</t>
+  </si>
+  <si>
+    <t>7506306237339</t>
+  </si>
+  <si>
+    <t>7501055302451</t>
+  </si>
+  <si>
+    <t>7501072639073</t>
+  </si>
+  <si>
+    <t>7502100700055</t>
+  </si>
+  <si>
+    <t>7502275700928</t>
+  </si>
+  <si>
+    <t>7506306215191</t>
+  </si>
+  <si>
+    <t>771358</t>
+  </si>
+  <si>
+    <t>771454</t>
   </si>
 </sst>
 </file>
@@ -516,8 +436,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D8DBB6-C27D-40F1-A166-A64221C0D85B}">
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6564483A-BB20-403B-BFDC-8FF33036723B}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -530,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -546,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -554,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -594,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -602,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -618,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,222 +578,6 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
         <v>1</v>
       </c>
     </row>
